--- a/Upgrad/src/com/Upgrad class.xlsx
+++ b/Upgrad/src/com/Upgrad class.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthavasikani\IdeaProjects\Upgrad\src\com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthavasikani\IdeaProjects\Java Code\Upgrad\src\com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095237D-37E1-4B4C-B238-84899E269CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAC7A68-82D2-477F-ACA7-9EC6BC9ABB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,7 +1370,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A3:A8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A364E279-783C-41E6-AC2F-38AB0B1443EB}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2761,7 +2761,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
